--- a/model/results/mix1_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/mix1_ggpos_h2pos/v_mix.xlsx
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14043888.64792139</v>
+        <v>14043888.64792131</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25170492.87324265</v>
+        <v>22357409.53990921</v>
       </c>
     </row>
     <row r="4">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3107480.173469387</v>
+        <v>3107480.173469376</v>
       </c>
     </row>
     <row r="5">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2186916.666666667</v>
+        <v>5000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14043888.64792139</v>
+        <v>14043888.64792131</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20170492.87324264</v>
+        <v>19857409.5399092</v>
       </c>
     </row>
     <row r="4">
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3107480.173469387</v>
+        <v>3107480.173469376</v>
       </c>
     </row>
     <row r="5">
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
     </row>
     <row r="7">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7186916.666666666</v>
+        <v>7500000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14043888.64792139</v>
+        <v>14043888.64792131</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19857409.53990934</v>
+        <v>27357409.53990921</v>
       </c>
     </row>
     <row r="4">
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3107480.173469387</v>
+        <v>3107480.173469377</v>
       </c>
     </row>
     <row r="5">
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
     </row>
     <row r="7">
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14043888.6479214</v>
+        <v>14043888.64792131</v>
       </c>
     </row>
     <row r="3">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19857409.53990933</v>
+        <v>22357409.5399092</v>
       </c>
     </row>
     <row r="4">
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3107480.173469387</v>
+        <v>3107480.173469377</v>
       </c>
     </row>
     <row r="5">
@@ -946,10 +946,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.071020960807801e-08</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.071020960807801e-08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>5000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14043888.64792139</v>
+        <v>14043888.64792124</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19857409.5399093</v>
+        <v>19857409.53990928</v>
       </c>
     </row>
     <row r="4">
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
     </row>
     <row r="7">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14058468.09236583</v>
+        <v>14508000.96273609</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>16701709.26213151</v>
+        <v>14514792.59546479</v>
       </c>
     </row>
     <row r="4">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1394395.451247165</v>
+        <v>1394395.45124716</v>
       </c>
     </row>
     <row r="5">
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>499999.9999999977</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.42592592</v>
       </c>
     </row>
     <row r="6">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14058468.09236583</v>
+        <v>14508000.96273612</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11701709.26213151</v>
+        <v>9514792.595464755</v>
       </c>
     </row>
     <row r="4">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1394395.451247166</v>
+        <v>1394395.451247153</v>
       </c>
     </row>
     <row r="5">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>499999.9999999976</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.42592592</v>
       </c>
     </row>
     <row r="6">
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
     </row>
     <row r="7">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14058468.09236583</v>
+        <v>14508000.96273613</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6701709.262131548</v>
+        <v>4514792.595464934</v>
       </c>
     </row>
     <row r="4">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1394395.451247165</v>
+        <v>1394395.451247153</v>
       </c>
     </row>
     <row r="5">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.490116119384766e-08</v>
+        <v>499999.9999999981</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925921</v>
       </c>
     </row>
     <row r="6">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
     </row>
     <row r="7">
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14058468.09236583</v>
+        <v>14508000.96273613</v>
       </c>
     </row>
     <row r="3">
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1701709.262131508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1394395.451247165</v>
+        <v>1394395.451247153</v>
       </c>
     </row>
     <row r="5">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>499999.9999999973</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925919</v>
       </c>
     </row>
     <row r="6">
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>20000000</v>
+        <v>19514792.59546477</v>
       </c>
     </row>
   </sheetData>
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14058468.09236584</v>
+        <v>14508000.96273605</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1394395.451247165</v>
+        <v>1394395.451247166</v>
       </c>
     </row>
     <row r="5">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.396983861923218e-08</v>
+        <v>499999.9999999971</v>
       </c>
       <c r="C5" t="n">
-        <v>1.396983861923218e-08</v>
+        <v>1115888.425925919</v>
       </c>
     </row>
     <row r="6">
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>21701709.26213149</v>
+        <v>19514792.59546471</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9288948.793167045</v>
+        <v>9340137.074074011</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10555805.07863945</v>
+        <v>10632587.49999992</v>
       </c>
     </row>
     <row r="4">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18538745.17097505</v>
+        <v>18922657.27777776</v>
       </c>
     </row>
     <row r="5">
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12288253.33333333</v>
+        <v>12288253.33333323</v>
       </c>
     </row>
     <row r="7">
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14058468.09236584</v>
+        <v>14508000.96273613</v>
       </c>
     </row>
     <row r="3">
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1394395.451247165</v>
+        <v>1394395.451247153</v>
       </c>
     </row>
     <row r="5">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.396983861923218e-08</v>
+        <v>499999.999999997</v>
       </c>
       <c r="C5" t="n">
-        <v>1.396983861923218e-08</v>
+        <v>1115888.425925919</v>
       </c>
     </row>
     <row r="6">
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
     </row>
     <row r="7">
@@ -1847,7 +1847,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>21701709.26213147</v>
+        <v>19514792.59546481</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9288948.793167045</v>
+        <v>9340137.074074011</v>
       </c>
     </row>
     <row r="3">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10555805.07863945</v>
+        <v>10632587.49999992</v>
       </c>
     </row>
     <row r="4">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18538745.17097505</v>
+        <v>18922657.27777776</v>
       </c>
     </row>
     <row r="5">
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12288253.33333333</v>
+        <v>12288253.33333323</v>
       </c>
     </row>
     <row r="7">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9288948.793167045</v>
+        <v>9340137.074074011</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>10555805.07863945</v>
+        <v>10632587.49999992</v>
       </c>
     </row>
     <row r="4">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18538745.17097505</v>
+        <v>18922657.27777776</v>
       </c>
     </row>
     <row r="5">
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12288253.33333333</v>
+        <v>12288253.33333323</v>
       </c>
     </row>
     <row r="7">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13195178.62518519</v>
+        <v>13195178.62518509</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6615330.382222218</v>
+        <v>6615330.382222205</v>
       </c>
     </row>
     <row r="4">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666667</v>
+        <v>12083802.6666666</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13370145.48946334</v>
+        <v>13421333.77037027</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12831808.45641723</v>
+        <v>14731021.43333331</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>16358276.50430839</v>
+        <v>14919758.05555556</v>
       </c>
     </row>
     <row r="5">
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666667</v>
+        <v>12083802.66666659</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13370145.48946334</v>
+        <v>13421333.77037027</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>18785836.23419501</v>
+        <v>20685049.21111109</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10404248.72653062</v>
+        <v>8965730.277777776</v>
       </c>
     </row>
     <row r="5">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666667</v>
+        <v>12083802.66666659</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13992700.36701436</v>
+        <v>14043888.64792131</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19504168.78521543</v>
+        <v>21403381.76213143</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>10500026.4</v>
+        <v>9061507.95124715</v>
       </c>
     </row>
     <row r="5">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14029309.20347695</v>
+        <v>14043888.64792131</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25513109.81768709</v>
+        <v>27357409.5399092</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4820564.895691611</v>
+        <v>3107480.173469377</v>
       </c>
     </row>
     <row r="5">
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13041579.40136054</v>
+        <v>13041579.40136042</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
